--- a/RPA/sample.xlsx
+++ b/RPA/sample.xlsx
@@ -7,11 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IndexSheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MySheet" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="YourSheet" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NadoSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,91 +422,663 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00ff66ff"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="K11" t="n">
+        <v>87</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N11" t="n">
+        <v>69</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>97</v>
+      </c>
+      <c r="T11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="K12" t="n">
+        <v>16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27</v>
+      </c>
+      <c r="N12" t="n">
+        <v>71</v>
+      </c>
+      <c r="O12" t="n">
+        <v>36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34</v>
+      </c>
+      <c r="T12" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="K13" t="n">
+        <v>9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>55</v>
+      </c>
+      <c r="M13" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" t="n">
+        <v>74</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="K14" t="n">
+        <v>59</v>
+      </c>
+      <c r="L14" t="n">
+        <v>80</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>43</v>
+      </c>
+      <c r="T14" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15" t="n">
+        <v>62</v>
+      </c>
+      <c r="L15" t="n">
+        <v>96</v>
+      </c>
+      <c r="M15" t="n">
+        <v>63</v>
+      </c>
+      <c r="N15" t="n">
+        <v>65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>46</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>43</v>
+      </c>
+      <c r="T15" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="K16" t="n">
+        <v>64</v>
+      </c>
+      <c r="L16" t="n">
+        <v>68</v>
+      </c>
+      <c r="M16" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>21</v>
+      </c>
+      <c r="T16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="K17" t="n">
+        <v>83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>81</v>
+      </c>
+      <c r="M17" t="n">
+        <v>48</v>
+      </c>
+      <c r="N17" t="n">
+        <v>81</v>
+      </c>
+      <c r="O17" t="n">
+        <v>25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>32</v>
+      </c>
+      <c r="T17" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="K18" t="n">
+        <v>96</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32</v>
+      </c>
+      <c r="M18" t="n">
+        <v>66</v>
+      </c>
+      <c r="N18" t="n">
+        <v>33</v>
+      </c>
+      <c r="O18" t="n">
+        <v>31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>98</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="K19" t="n">
+        <v>38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>28</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41</v>
+      </c>
+      <c r="N19" t="n">
+        <v>62</v>
+      </c>
+      <c r="O19" t="n">
+        <v>23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21</v>
+      </c>
+      <c r="T19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>97</v>
+      </c>
+      <c r="M20" t="n">
+        <v>55</v>
+      </c>
+      <c r="N20" t="n">
+        <v>67</v>
+      </c>
+      <c r="O20" t="n">
+        <v>49</v>
+      </c>
+      <c r="P20" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>100</v>
+      </c>
+      <c r="S20" t="n">
+        <v>66</v>
+      </c>
+      <c r="T20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AE34" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AE35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AE36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>58</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>59</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AE37" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>66</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>69</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AE38" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AE39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>82</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>84</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>86</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>88</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>89</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="AE40" t="n">
+        <v>91</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>93</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>94</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>96</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>97</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>99</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
